--- a/data/scheduling_DNN/predict/0.1/result19.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result19.xlsx
@@ -570,10 +570,10 @@
         <v>0.8800759315490723</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.5304775834083557</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1776179373264313</v>
+        <v>0.1222190037369728</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.8676609992980957</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.4793486595153809</v>
       </c>
       <c r="W3" t="n">
-        <v>0.132017970085144</v>
+        <v>0.1507864743471146</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8921811580657959</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.4793853163719177</v>
       </c>
       <c r="W4" t="n">
-        <v>0.005691722501069307</v>
+        <v>0.1704004108905792</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9218039512634277</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.5597151517868042</v>
       </c>
       <c r="W5" t="n">
-        <v>0.235982358455658</v>
+        <v>0.1311082988977432</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8733429908752441</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.5303510427474976</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2432009726762772</v>
+        <v>0.1176434755325317</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8694429397583008</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.4675353169441223</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1590214371681213</v>
+        <v>0.1615297347307205</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8633761405944824</v>
       </c>
       <c r="V8" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.494015634059906</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01910116337239742</v>
+        <v>0.13642717897892</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.929577112197876</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.4829517006874084</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1301992833614349</v>
+        <v>0.1994742602109909</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8840320110321045</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.5033204555511475</v>
       </c>
       <c r="W10" t="n">
-        <v>0.254700243473053</v>
+        <v>0.1449412852525711</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8634829521179199</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.5500147938728333</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1830121576786041</v>
+        <v>0.09826228767633438</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8699610233306885</v>
       </c>
       <c r="V12" t="n">
-        <v>0.473088413476944</v>
+        <v>0.925049364566803</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1575078666210175</v>
+        <v>0.003034725319594145</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8954930305480957</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.5059587955474854</v>
       </c>
       <c r="W13" t="n">
-        <v>0.07656329870223999</v>
+        <v>0.1517369151115417</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9049210548400879</v>
       </c>
       <c r="V14" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.5789269208908081</v>
       </c>
       <c r="W14" t="n">
-        <v>0.007836390286684036</v>
+        <v>0.1062721759080887</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9159040451049805</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.4889242053031921</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2020754367113113</v>
+        <v>0.1823117882013321</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8634560108184814</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.9845204949378967</v>
       </c>
       <c r="W16" t="n">
-        <v>0.05262257158756256</v>
+        <v>0.01465660892426968</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8665509223937988</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.9573511481285095</v>
       </c>
       <c r="W17" t="n">
-        <v>0.05797626823186874</v>
+        <v>0.008244681172072887</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8804380893707275</v>
       </c>
       <c r="V18" t="n">
-        <v>0.435836523771286</v>
+        <v>0.8855351805686951</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1976705491542816</v>
+        <v>2.598033825051971e-05</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.850895881652832</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.5065476298332214</v>
       </c>
       <c r="W19" t="n">
-        <v>0.07964517176151276</v>
+        <v>0.1185757219791412</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8770761489868164</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.480956494808197</v>
       </c>
       <c r="W20" t="n">
-        <v>0.09352207183837891</v>
+        <v>0.15691077709198</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8848609924316406</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.9396315813064575</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1818024516105652</v>
+        <v>0.002999817486852407</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5402131080627441</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.5797999501228333</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0209951363503933</v>
+        <v>0.001567118102684617</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5322661399841309</v>
       </c>
       <c r="V23" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.8731197714805603</v>
       </c>
       <c r="W23" t="n">
-        <v>0.03976785019040108</v>
+        <v>0.1161811947822571</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5314500331878662</v>
       </c>
       <c r="V24" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.5325088500976562</v>
       </c>
       <c r="W24" t="n">
-        <v>0.008732113055884838</v>
+        <v>1.121093191613909e-06</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5492429733276367</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.5553467273712158</v>
       </c>
       <c r="W25" t="n">
-        <v>0.008276214823126793</v>
+        <v>3.725581336766481e-05</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5451080799102783</v>
       </c>
       <c r="V26" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.5954628586769104</v>
       </c>
       <c r="W26" t="n">
-        <v>6.718705844832584e-05</v>
+        <v>0.002535603707656264</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5172281265258789</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.4675033092498779</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0001116982239182107</v>
+        <v>0.002472557360306382</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5154099464416504</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.4813618659973145</v>
       </c>
       <c r="W28" t="n">
-        <v>0.001938053988851607</v>
+        <v>0.001159271807409823</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5263199806213379</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.9030994772911072</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0004854783182963729</v>
+        <v>0.1419627964496613</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5287010669708252</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.8828058838844299</v>
       </c>
       <c r="W30" t="n">
-        <v>0.002758714370429516</v>
+        <v>0.1253902167081833</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5156459808349609</v>
       </c>
       <c r="V31" t="n">
-        <v>0.812067985534668</v>
+        <v>0.8955234885215759</v>
       </c>
       <c r="W31" t="n">
-        <v>0.08786600828170776</v>
+        <v>0.1443069279193878</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5232930183410645</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.4862720370292664</v>
       </c>
       <c r="W32" t="n">
-        <v>0.004307713825255632</v>
+        <v>0.001370553043670952</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5139598846435547</v>
       </c>
       <c r="V33" t="n">
-        <v>0.476378470659256</v>
+        <v>0.9829195141792297</v>
       </c>
       <c r="W33" t="n">
-        <v>0.001412362675182521</v>
+        <v>0.2199231386184692</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5158250331878662</v>
       </c>
       <c r="V34" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.915942370891571</v>
       </c>
       <c r="W34" t="n">
-        <v>0.01884655654430389</v>
+        <v>0.1600938886404037</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5150289535522461</v>
       </c>
       <c r="V35" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.5325047969818115</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01223557628691196</v>
+        <v>0.0003054050903301686</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5662088394165039</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.8794370293617249</v>
       </c>
       <c r="W36" t="n">
-        <v>0.009117282927036285</v>
+        <v>0.09811189770698547</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5136969089508057</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.4888320565223694</v>
       </c>
       <c r="W37" t="n">
-        <v>0.002453321125358343</v>
+        <v>0.0006182608776725829</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.513293981552124</v>
       </c>
       <c r="V38" t="n">
-        <v>0.505409836769104</v>
+        <v>0.5052598714828491</v>
       </c>
       <c r="W38" t="n">
-        <v>6.21597355348058e-05</v>
+        <v>6.454692629631609e-05</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5130608081817627</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.467768669128418</v>
       </c>
       <c r="W39" t="n">
-        <v>0.001512365182861686</v>
+        <v>0.002051377901807427</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5155019760131836</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.5025646090507507</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0001286461192648858</v>
+        <v>0.000167375459568575</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5130329132080078</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.5499427914619446</v>
       </c>
       <c r="W41" t="n">
-        <v>0.003068748861551285</v>
+        <v>0.001362339127808809</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4143729209899902</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.5788354277610779</v>
       </c>
       <c r="W42" t="n">
-        <v>0.04282018914818764</v>
+        <v>0.02704791538417339</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4289770126342773</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.950826108455658</v>
       </c>
       <c r="W43" t="n">
-        <v>0.0006804686272516847</v>
+        <v>0.2723264694213867</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3902828693389893</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.5587239861488342</v>
       </c>
       <c r="W44" t="n">
-        <v>0.002092309296131134</v>
+        <v>0.02837241068482399</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3889229297637939</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.8859722018241882</v>
       </c>
       <c r="W45" t="n">
-        <v>0.004180362448096275</v>
+        <v>0.2470579743385315</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3882210254669189</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.8855652213096619</v>
       </c>
       <c r="W46" t="n">
-        <v>0.02711922861635685</v>
+        <v>0.2473512440919876</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4150989055633545</v>
       </c>
       <c r="V47" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.4673289060592651</v>
       </c>
       <c r="W47" t="n">
-        <v>0.04071356356143951</v>
+        <v>0.002727973042055964</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4001379013061523</v>
       </c>
       <c r="V48" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.579744279384613</v>
       </c>
       <c r="W48" t="n">
-        <v>0.00126778706908226</v>
+        <v>0.03225845098495483</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3861699104309082</v>
       </c>
       <c r="V49" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.5514354109764099</v>
       </c>
       <c r="W49" t="n">
-        <v>0.1199374794960022</v>
+        <v>0.02731268480420113</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3905720710754395</v>
       </c>
       <c r="V50" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.9463534355163574</v>
       </c>
       <c r="W50" t="n">
-        <v>6.800593109801412e-05</v>
+        <v>0.3088929355144501</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3868680000305176</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.5783371329307556</v>
       </c>
       <c r="W51" t="n">
-        <v>0.02627689950168133</v>
+        <v>0.03666042909026146</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.395888090133667</v>
       </c>
       <c r="V52" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.5302178859710693</v>
       </c>
       <c r="W52" t="n">
-        <v>0.1825384050607681</v>
+        <v>0.01804449409246445</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3869960308074951</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.5343151092529297</v>
       </c>
       <c r="W53" t="n">
-        <v>0.05384363606572151</v>
+        <v>0.02170291170477867</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.435471773147583</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.4785549640655518</v>
       </c>
       <c r="W54" t="n">
-        <v>0.0005026853177696466</v>
+        <v>0.001856161281466484</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3908400535583496</v>
       </c>
       <c r="V55" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.5047150850296021</v>
       </c>
       <c r="W55" t="n">
-        <v>0.08834050595760345</v>
+        <v>0.01296752318739891</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3882689476013184</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.8883326649665833</v>
       </c>
       <c r="W56" t="n">
-        <v>0.02692624367773533</v>
+        <v>0.2500637173652649</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3859150409698486</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.4671477079391479</v>
       </c>
       <c r="W57" t="n">
-        <v>0.003170218551531434</v>
+        <v>0.006598746404051781</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3857488632202148</v>
       </c>
       <c r="V58" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.9261133670806885</v>
       </c>
       <c r="W58" t="n">
-        <v>0.1875157058238983</v>
+        <v>0.2919937968254089</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3867819309234619</v>
       </c>
       <c r="V59" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.5034466981887817</v>
       </c>
       <c r="W59" t="n">
-        <v>0.08198752254247665</v>
+        <v>0.0136106675490737</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.458975076675415</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.9319102764129639</v>
       </c>
       <c r="W60" t="n">
-        <v>0.008563237264752388</v>
+        <v>0.2236676961183548</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3881490230560303</v>
       </c>
       <c r="V61" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.5304410457611084</v>
       </c>
       <c r="W61" t="n">
-        <v>0.06515352427959442</v>
+        <v>0.02024701982736588</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.9127650260925293</v>
       </c>
       <c r="V62" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.4798069596290588</v>
       </c>
       <c r="W62" t="n">
-        <v>0.08656728267669678</v>
+        <v>0.1874526888132095</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8612899780273438</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.941765308380127</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1402625143527985</v>
+        <v>0.006476278882473707</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8768360614776611</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.8700499534606934</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1038392260670662</v>
+        <v>4.605126378010027e-05</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8781709671020508</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.5475924611091614</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1627970933914185</v>
+        <v>0.1092821508646011</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.863724946975708</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.9462969303131104</v>
       </c>
       <c r="W66" t="n">
-        <v>0.0850713700056076</v>
+        <v>0.006818132475018501</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8782081604003906</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.5304079651832581</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1459257453680038</v>
+        <v>0.1209649741649628</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8893680572509766</v>
       </c>
       <c r="V68" t="n">
-        <v>0.551807165145874</v>
+        <v>0.479793906211853</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1139473542571068</v>
+        <v>0.1677509844303131</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8595919609069824</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.943458616733551</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1284497827291489</v>
+        <v>0.007033615838736296</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8604397773742676</v>
       </c>
       <c r="V70" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.5454270839691162</v>
       </c>
       <c r="W70" t="n">
-        <v>0.05517616122961044</v>
+        <v>0.0992329940199852</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8752150535583496</v>
       </c>
       <c r="V71" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.4957881569862366</v>
       </c>
       <c r="W71" t="n">
-        <v>0.2463544905185699</v>
+        <v>0.1439647674560547</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8724410533905029</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.5050341486930847</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1719785183668137</v>
+        <v>0.1349878311157227</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8618340492248535</v>
       </c>
       <c r="V73" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.530185341835022</v>
       </c>
       <c r="W73" t="n">
-        <v>0.05799733847379684</v>
+        <v>0.1099908649921417</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8569347858428955</v>
       </c>
       <c r="V74" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.4947308897972107</v>
       </c>
       <c r="W74" t="n">
-        <v>0.08973837643861771</v>
+        <v>0.1311916559934616</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8567419052124023</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.4795244336128235</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1625012457370758</v>
+        <v>0.1422930210828781</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8712930679321289</v>
       </c>
       <c r="V76" t="n">
-        <v>0.8231731653213501</v>
+        <v>1.044899582862854</v>
       </c>
       <c r="W76" t="n">
-        <v>0.002315524965524673</v>
+        <v>0.03013922274112701</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>1.038961887359619</v>
       </c>
       <c r="V77" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.9393154382705688</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1458207219839096</v>
+        <v>0.009929414838552475</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8774948120117188</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.8786196708679199</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1411904394626617</v>
+        <v>1.265307446374209e-06</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8625481128692627</v>
       </c>
       <c r="V79" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.9038000106811523</v>
       </c>
       <c r="W79" t="n">
-        <v>0.0158020481467247</v>
+        <v>0.001701719127595425</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.9121170043945312</v>
       </c>
       <c r="V80" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.4784190058708191</v>
       </c>
       <c r="W80" t="n">
-        <v>0.06433781236410141</v>
+        <v>0.1880939602851868</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8605878353118896</v>
       </c>
       <c r="V81" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.9373672604560852</v>
       </c>
       <c r="W81" t="n">
-        <v>0.08544750511646271</v>
+        <v>0.005895080044865608</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5465860366821289</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.4675453305244446</v>
       </c>
       <c r="W82" t="n">
-        <v>0.003513299627229571</v>
+        <v>0.006247433368116617</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5210649967193604</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.4807687997817993</v>
       </c>
       <c r="W83" t="n">
-        <v>0.007231401745229959</v>
+        <v>0.001623783493414521</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5170390605926514</v>
       </c>
       <c r="V84" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.9162604808807373</v>
       </c>
       <c r="W84" t="n">
-        <v>0.003746712347492576</v>
+        <v>0.1593777388334274</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5664689540863037</v>
       </c>
       <c r="V85" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.9170124530792236</v>
       </c>
       <c r="W85" t="n">
-        <v>0.003960520960390568</v>
+        <v>0.1228807419538498</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5162448883056641</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.4795252680778503</v>
       </c>
       <c r="W86" t="n">
-        <v>0.0001513035531388596</v>
+        <v>0.001348330522887409</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5175998210906982</v>
       </c>
       <c r="V87" t="n">
-        <v>0.473930835723877</v>
+        <v>0.5803105235099792</v>
       </c>
       <c r="W87" t="n">
-        <v>0.00190698029473424</v>
+        <v>0.00393263204023242</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5096049308776855</v>
       </c>
       <c r="V88" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.9256619215011597</v>
       </c>
       <c r="W88" t="n">
-        <v>0.09555277973413467</v>
+        <v>0.1731034219264984</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.515902042388916</v>
       </c>
       <c r="V89" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.5088909864425659</v>
       </c>
       <c r="W89" t="n">
-        <v>0.0001994766062125564</v>
+        <v>4.915490717394277e-05</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5152759552001953</v>
       </c>
       <c r="V90" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.8998973369598389</v>
       </c>
       <c r="W90" t="n">
-        <v>0.001203488674946129</v>
+        <v>0.1479336023330688</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5347540378570557</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.5303531885147095</v>
       </c>
       <c r="W91" t="n">
-        <v>0.001137875718995929</v>
+        <v>1.936747503350489e-05</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5182080268859863</v>
       </c>
       <c r="V92" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.878733217716217</v>
       </c>
       <c r="W92" t="n">
-        <v>0.01969681307673454</v>
+        <v>0.1299784183502197</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5175151824951172</v>
       </c>
       <c r="V93" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.5791339874267578</v>
       </c>
       <c r="W93" t="n">
-        <v>0.01136133354157209</v>
+        <v>0.003796877106651664</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5140619277954102</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.467567503452301</v>
       </c>
       <c r="W94" t="n">
-        <v>0.001485979883000255</v>
+        <v>0.002161731477826834</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5156261920928955</v>
       </c>
       <c r="V95" t="n">
-        <v>0.56818687915802</v>
+        <v>0.5514315366744995</v>
       </c>
       <c r="W95" t="n">
-        <v>0.002762625925242901</v>
+        <v>0.001282022683881223</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5681450366973877</v>
       </c>
       <c r="V96" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.9379483461380005</v>
       </c>
       <c r="W96" t="n">
-        <v>0.01271555200219154</v>
+        <v>0.1367544829845428</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5210428237915039</v>
       </c>
       <c r="V97" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.5809909105300903</v>
       </c>
       <c r="W97" t="n">
-        <v>0.08704797178506851</v>
+        <v>0.003593773115426302</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5160708427429199</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.9471668601036072</v>
       </c>
       <c r="W98" t="n">
-        <v>0.001199141959659755</v>
+        <v>0.1858437806367874</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5164201259613037</v>
       </c>
       <c r="V99" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.5611016154289246</v>
       </c>
       <c r="W99" t="n">
-        <v>0.006463899742811918</v>
+        <v>0.001996435457840562</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5138189792633057</v>
       </c>
       <c r="V100" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.9260199666023254</v>
       </c>
       <c r="W100" t="n">
-        <v>0.003165136091411114</v>
+        <v>0.169909656047821</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5259408950805664</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.4828171133995056</v>
       </c>
       <c r="W101" t="n">
-        <v>0.003775711171329021</v>
+        <v>0.001859660493209958</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4133501052856445</v>
       </c>
       <c r="V102" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.8753644227981567</v>
       </c>
       <c r="W102" t="n">
-        <v>0.01940976828336716</v>
+        <v>0.2134572267532349</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4049351215362549</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.5300381183624268</v>
       </c>
       <c r="W103" t="n">
-        <v>0.02029980719089508</v>
+        <v>0.01565076038241386</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3962719440460205</v>
       </c>
       <c r="V104" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.4836925864219666</v>
       </c>
       <c r="W104" t="n">
-        <v>0.05363349989056587</v>
+        <v>0.007642368786036968</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4027221202850342</v>
       </c>
       <c r="V105" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.5124688148498535</v>
       </c>
       <c r="W105" t="n">
-        <v>0.001559239928610623</v>
+        <v>0.01204433664679527</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3926429748535156</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.9142776131629944</v>
       </c>
       <c r="W106" t="n">
-        <v>0.003144717309623957</v>
+        <v>0.2721026837825775</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3902091979980469</v>
       </c>
       <c r="V107" t="n">
-        <v>0.618610143661499</v>
+        <v>0.9256058931350708</v>
       </c>
       <c r="W107" t="n">
-        <v>0.05216699093580246</v>
+        <v>0.286649614572525</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3911230564117432</v>
       </c>
       <c r="V108" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.485088586807251</v>
       </c>
       <c r="W108" t="n">
-        <v>0.007161421701312065</v>
+        <v>0.008829521015286446</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3926730155944824</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.5795226693153381</v>
       </c>
       <c r="W109" t="n">
-        <v>0.004227689001709223</v>
+        <v>0.03491279482841492</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.388789176940918</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.5047976970672607</v>
       </c>
       <c r="W110" t="n">
-        <v>0.002193341962993145</v>
+        <v>0.01345797628164291</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3967311382293701</v>
       </c>
       <c r="V111" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.8836319446563721</v>
       </c>
       <c r="W111" t="n">
-        <v>0.06353024393320084</v>
+        <v>0.2370723932981491</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4083321094512939</v>
       </c>
       <c r="V112" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.944855272769928</v>
       </c>
       <c r="W112" t="n">
-        <v>0.0009304060367867351</v>
+        <v>0.2878571152687073</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3889851570129395</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.4922125339508057</v>
       </c>
       <c r="W113" t="n">
-        <v>0.06488329917192459</v>
+        <v>0.01065589115023613</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3896899223327637</v>
       </c>
       <c r="V114" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.911234974861145</v>
       </c>
       <c r="W114" t="n">
-        <v>0.006973359733819962</v>
+        <v>0.2720092535018921</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3974769115447998</v>
       </c>
       <c r="V115" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.4800841808319092</v>
       </c>
       <c r="W115" t="n">
-        <v>0.06738079339265823</v>
+        <v>0.006823961157351732</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3896780014038086</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.8949423432350159</v>
       </c>
       <c r="W116" t="n">
-        <v>0.01792175322771072</v>
+        <v>0.2552920579910278</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3897068500518799</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.4798991084098816</v>
       </c>
       <c r="W117" t="n">
-        <v>0.00579447066411376</v>
+        <v>0.008134643547236919</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4027938842773438</v>
       </c>
       <c r="V118" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.580447793006897</v>
       </c>
       <c r="W118" t="n">
-        <v>0.05962932854890823</v>
+        <v>0.03156091272830963</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3890450000762939</v>
       </c>
       <c r="V119" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.4675502777099609</v>
       </c>
       <c r="W119" t="n">
-        <v>0.05610228329896927</v>
+        <v>0.00616307882592082</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4516420364379883</v>
       </c>
       <c r="V120" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.9025455117225647</v>
       </c>
       <c r="W120" t="n">
-        <v>0.07959411293268204</v>
+        <v>0.203313946723938</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3880558013916016</v>
       </c>
       <c r="V121" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.5121918320655823</v>
       </c>
       <c r="W121" t="n">
-        <v>0.06639926135540009</v>
+        <v>0.01540975365787745</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8737239837646484</v>
       </c>
       <c r="V122" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.5047575235366821</v>
       </c>
       <c r="W122" t="n">
-        <v>0.06603311747312546</v>
+        <v>0.1361362487077713</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9216129779815674</v>
       </c>
       <c r="V123" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.9924490451812744</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1989908516407013</v>
+        <v>0.005017748568207026</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.9054698944091797</v>
       </c>
       <c r="V124" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.9130063652992249</v>
       </c>
       <c r="W124" t="n">
-        <v>0.008705954998731613</v>
+        <v>5.679839523509145e-05</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.869758129119873</v>
       </c>
       <c r="V125" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.4832804203033447</v>
       </c>
       <c r="W125" t="n">
-        <v>0.002809755504131317</v>
+        <v>0.149365022778511</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8722028732299805</v>
       </c>
       <c r="V126" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.5586089491844177</v>
       </c>
       <c r="W126" t="n">
-        <v>0.171965554356575</v>
+        <v>0.09834115207195282</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8680789470672607</v>
       </c>
       <c r="V127" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.8705545663833618</v>
       </c>
       <c r="W127" t="n">
-        <v>0.05930205807089806</v>
+        <v>6.128690984041896e-06</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.9072549343109131</v>
       </c>
       <c r="V128" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.9387752413749695</v>
       </c>
       <c r="W128" t="n">
-        <v>0.03326344862580299</v>
+        <v>0.0009935298003256321</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8536148071289062</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.5123351812362671</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1465521454811096</v>
+        <v>0.1164717823266983</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8700978755950928</v>
       </c>
       <c r="V130" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.4671735167503357</v>
       </c>
       <c r="W130" t="n">
-        <v>0.05860403925180435</v>
+        <v>0.1623480319976807</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8654320240020752</v>
       </c>
       <c r="V131" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.8949852585792542</v>
       </c>
       <c r="W131" t="n">
-        <v>0.05841061845421791</v>
+        <v>0.0008733936701901257</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.9206140041351318</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.9904959201812744</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1376107931137085</v>
+        <v>0.004883482120931149</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8768758773803711</v>
       </c>
       <c r="V133" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.5301799178123474</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1686926186084747</v>
+        <v>0.1201980859041214</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8594970703125</v>
       </c>
       <c r="V134" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.9150918126106262</v>
       </c>
       <c r="W134" t="n">
-        <v>0.2313263714313507</v>
+        <v>0.003090775338932872</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8773629665374756</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.8871572613716125</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1947845667600632</v>
+        <v>9.592821152182296e-05</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.912168025970459</v>
       </c>
       <c r="V136" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.558786928653717</v>
       </c>
       <c r="W136" t="n">
-        <v>0.2007409781217575</v>
+        <v>0.1248781979084015</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8695828914642334</v>
       </c>
       <c r="V137" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.4785444736480713</v>
       </c>
       <c r="W137" t="n">
-        <v>0.06006034836173058</v>
+        <v>0.1529110372066498</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8611979484558105</v>
       </c>
       <c r="V138" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.4884955883026123</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1807779967784882</v>
+        <v>0.1389070451259613</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8670740127563477</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.9011443853378296</v>
       </c>
       <c r="W139" t="n">
-        <v>0.03757848590612411</v>
+        <v>0.001160790328867733</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.9231870174407959</v>
       </c>
       <c r="V140" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.4795973300933838</v>
       </c>
       <c r="W140" t="n">
-        <v>0.2156221270561218</v>
+        <v>0.1967718154191971</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8668670654296875</v>
       </c>
       <c r="V141" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.4822288751602173</v>
       </c>
       <c r="W141" t="n">
-        <v>0.04255689308047295</v>
+        <v>0.1479465365409851</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5301880836486816</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.4675307869911194</v>
       </c>
       <c r="W142" t="n">
-        <v>0.004119805060327053</v>
+        <v>0.003925936762243509</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5204591751098633</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.9109347462654114</v>
       </c>
       <c r="W143" t="n">
-        <v>0.0001877588365459815</v>
+        <v>0.1524711698293686</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5223519802093506</v>
       </c>
       <c r="V144" t="n">
-        <v>0.504918098449707</v>
+        <v>0.4638950228691101</v>
       </c>
       <c r="W144" t="n">
-        <v>0.0003039402363356203</v>
+        <v>0.003417215775698423</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5702438354492188</v>
       </c>
       <c r="V145" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.8831817507743835</v>
       </c>
       <c r="W145" t="n">
-        <v>1.821777914301492e-05</v>
+        <v>0.09793014079332352</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5222780704498291</v>
       </c>
       <c r="V146" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.4829500913619995</v>
       </c>
       <c r="W146" t="n">
-        <v>0.01061347872018814</v>
+        <v>0.001546689891256392</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5579400062561035</v>
       </c>
       <c r="V147" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.893774151802063</v>
       </c>
       <c r="W147" t="n">
-        <v>0.01059462409466505</v>
+        <v>0.1127845719456673</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5186409950256348</v>
       </c>
       <c r="V148" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.4814218878746033</v>
       </c>
       <c r="W148" t="n">
-        <v>0.01915540732443333</v>
+        <v>0.001385261886753142</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5216400623321533</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.4846258163452148</v>
       </c>
       <c r="W149" t="n">
-        <v>0.0105062909424305</v>
+        <v>0.001370054436847568</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5189321041107178</v>
       </c>
       <c r="V150" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.5049906373023987</v>
       </c>
       <c r="W150" t="n">
-        <v>0.01896439865231514</v>
+        <v>0.0001943645038409159</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5185389518737793</v>
       </c>
       <c r="V151" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.5176606774330139</v>
       </c>
       <c r="W151" t="n">
-        <v>0.001225531799718738</v>
+        <v>7.713659897490288e-07</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5196919441223145</v>
       </c>
       <c r="V152" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.5663533210754395</v>
       </c>
       <c r="W152" t="n">
-        <v>0.001749624498188496</v>
+        <v>0.002177284099161625</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5183861255645752</v>
       </c>
       <c r="V153" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.503477156162262</v>
       </c>
       <c r="W153" t="n">
-        <v>0.01964244246482849</v>
+        <v>0.0002222773618996143</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5178849697113037</v>
       </c>
       <c r="V154" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.8941276669502258</v>
       </c>
       <c r="W154" t="n">
-        <v>0.003386740572750568</v>
+        <v>0.1415585726499557</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5190579891204834</v>
       </c>
       <c r="V155" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.8860504627227783</v>
       </c>
       <c r="W155" t="n">
-        <v>0.0002261418558191508</v>
+        <v>0.1346834748983383</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5748291015625</v>
       </c>
       <c r="V156" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.8965445160865784</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01926680468022823</v>
+        <v>0.1035008057951927</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.52199387550354</v>
       </c>
       <c r="V157" t="n">
-        <v>0.816550612449646</v>
+        <v>0.5803679823875427</v>
       </c>
       <c r="W157" t="n">
-        <v>0.08676367253065109</v>
+        <v>0.003407536307349801</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5196099281311035</v>
       </c>
       <c r="V158" t="n">
-        <v>0.630542516708374</v>
+        <v>0.9624297022819519</v>
       </c>
       <c r="W158" t="n">
-        <v>0.0123060392215848</v>
+        <v>0.1960893571376801</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.517909049987793</v>
       </c>
       <c r="V159" t="n">
-        <v>0.471180647611618</v>
+        <v>0.9021022319793701</v>
       </c>
       <c r="W159" t="n">
-        <v>0.002183543518185616</v>
+        <v>0.1476044058799744</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.513592004776001</v>
       </c>
       <c r="V160" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.4814420938491821</v>
       </c>
       <c r="W160" t="n">
-        <v>0.05456635355949402</v>
+        <v>0.001033616717904806</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5640079975128174</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.5042584538459778</v>
       </c>
       <c r="W161" t="n">
-        <v>0.01644978299736977</v>
+        <v>0.003570007858797908</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3895590305328369</v>
       </c>
       <c r="V162" t="n">
-        <v>0.458252340555191</v>
+        <v>0.9325935244560242</v>
       </c>
       <c r="W162" t="n">
-        <v>0.004718770738691092</v>
+        <v>0.2948864698410034</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3904240131378174</v>
       </c>
       <c r="V163" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.9515747427940369</v>
       </c>
       <c r="W163" t="n">
-        <v>1.064559143060251e-07</v>
+        <v>0.3148901462554932</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3974270820617676</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.9255470633506775</v>
       </c>
       <c r="W164" t="n">
-        <v>0.01088423933833838</v>
+        <v>0.2789107263088226</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3919899463653564</v>
       </c>
       <c r="V165" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.8857452273368835</v>
       </c>
       <c r="W165" t="n">
-        <v>0.008923369459807873</v>
+        <v>0.2437942773103714</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3884119987487793</v>
       </c>
       <c r="V166" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.4797275066375732</v>
       </c>
       <c r="W166" t="n">
-        <v>0.0162967499345541</v>
+        <v>0.008338522166013718</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3938169479370117</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.5031014680862427</v>
       </c>
       <c r="W167" t="n">
-        <v>0.05464072898030281</v>
+        <v>0.01194310653954744</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3880419731140137</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.5804973244667053</v>
       </c>
       <c r="W168" t="n">
-        <v>0.002262283116579056</v>
+        <v>0.03703906387090683</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3918697834014893</v>
       </c>
       <c r="V169" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.4818432927131653</v>
       </c>
       <c r="W169" t="n">
-        <v>0.1803009510040283</v>
+        <v>0.008095232769846916</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3917210102081299</v>
       </c>
       <c r="V170" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.5680410265922546</v>
       </c>
       <c r="W170" t="n">
-        <v>0.03017108142375946</v>
+        <v>0.03108874894678593</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3891420364379883</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.8836917877197266</v>
       </c>
       <c r="W171" t="n">
-        <v>0.03189202398061752</v>
+        <v>0.2445794492959976</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3981530666351318</v>
       </c>
       <c r="V172" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.886527955532074</v>
       </c>
       <c r="W172" t="n">
-        <v>0.01077200192958117</v>
+        <v>0.2385100275278091</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3937509059906006</v>
       </c>
       <c r="V173" t="n">
-        <v>0.480756551027298</v>
+        <v>0.4672958850860596</v>
       </c>
       <c r="W173" t="n">
-        <v>0.007569982204586267</v>
+        <v>0.005408864002674818</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3993968963623047</v>
       </c>
       <c r="V174" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.4784310460090637</v>
       </c>
       <c r="W174" t="n">
-        <v>0.05061513930559158</v>
+        <v>0.00624639680609107</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.4135229587554932</v>
       </c>
       <c r="V175" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.5001639127731323</v>
       </c>
       <c r="W175" t="n">
-        <v>0.001731203868985176</v>
+        <v>0.007506655063480139</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3927271366119385</v>
       </c>
       <c r="V176" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.524526834487915</v>
       </c>
       <c r="W176" t="n">
-        <v>0.02636582590639591</v>
+        <v>0.0173711609095335</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4053421020507812</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.8849414587020874</v>
       </c>
       <c r="W177" t="n">
-        <v>0.00427942955866456</v>
+        <v>0.2300155460834503</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4009919166564941</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.4807417988777161</v>
       </c>
       <c r="W178" t="n">
-        <v>0.004017304163426161</v>
+        <v>0.00636004377156496</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3946819305419922</v>
       </c>
       <c r="V179" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.5476416945457458</v>
       </c>
       <c r="W179" t="n">
-        <v>0.05265090614557266</v>
+        <v>0.02339668944478035</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4522020816802979</v>
       </c>
       <c r="V180" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.5302884578704834</v>
       </c>
       <c r="W180" t="n">
-        <v>0.03663215413689613</v>
+        <v>0.006097482051700354</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4426181316375732</v>
       </c>
       <c r="V181" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.4830021858215332</v>
       </c>
       <c r="W181" t="n">
-        <v>0.0002454191271681339</v>
+        <v>0.00163087178952992</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8774290084838867</v>
       </c>
       <c r="V182" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.8772052526473999</v>
       </c>
       <c r="W182" t="n">
-        <v>0.2484252601861954</v>
+        <v>5.006667436191492e-08</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9079790115356445</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.479475736618042</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1132666245102882</v>
+        <v>0.1836150586605072</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8884279727935791</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.9350144863128662</v>
       </c>
       <c r="W184" t="n">
-        <v>0.2046660333871841</v>
+        <v>0.002170303137972951</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8677070140838623</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.4738970398902893</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1613219678401947</v>
+        <v>0.1550862938165665</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8638520240783691</v>
       </c>
       <c r="V186" t="n">
-        <v>0.624285101890564</v>
+        <v>0.8767198920249939</v>
       </c>
       <c r="W186" t="n">
-        <v>0.05739231035113335</v>
+        <v>0.0001655820233281702</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8890640735626221</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.5487402081489563</v>
       </c>
       <c r="W187" t="n">
-        <v>0.2049893885850906</v>
+        <v>0.1158203333616257</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.9203848838806152</v>
       </c>
       <c r="V188" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.4829165935516357</v>
       </c>
       <c r="W188" t="n">
-        <v>0.1385351121425629</v>
+        <v>0.1913785040378571</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8613359928131104</v>
       </c>
       <c r="V189" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.5523462891578674</v>
       </c>
       <c r="W189" t="n">
-        <v>0.06582099944353104</v>
+        <v>0.09547463804483414</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8645191192626953</v>
       </c>
       <c r="V190" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.5030122399330139</v>
       </c>
       <c r="W190" t="n">
-        <v>0.01709308475255966</v>
+        <v>0.1306872218847275</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8686659336090088</v>
       </c>
       <c r="V191" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.5326049327850342</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1871818453073502</v>
+        <v>0.1129369959235191</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.9145469665527344</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.5302584767341614</v>
       </c>
       <c r="W192" t="n">
-        <v>0.2080039829015732</v>
+        <v>0.1476776450872421</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8666450977325439</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.4701943397521973</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1542270928621292</v>
+        <v>0.1571732014417648</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8691380023956299</v>
       </c>
       <c r="V194" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.4932155013084412</v>
       </c>
       <c r="W194" t="n">
-        <v>0.0601477324962616</v>
+        <v>0.1413177251815796</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8609139919281006</v>
       </c>
       <c r="V195" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.9776356816291809</v>
       </c>
       <c r="W195" t="n">
-        <v>0.09082895517349243</v>
+        <v>0.01362395286560059</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.9102509021759033</v>
       </c>
       <c r="V196" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.4888699054718018</v>
       </c>
       <c r="W196" t="n">
-        <v>0.2700001895427704</v>
+        <v>0.1775619387626648</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8614652156829834</v>
       </c>
       <c r="V197" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.4704722166061401</v>
       </c>
       <c r="W197" t="n">
-        <v>0.05763497203588486</v>
+        <v>0.1528755277395248</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8702621459960938</v>
       </c>
       <c r="V198" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.4706941843032837</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1883707344532013</v>
+        <v>0.1596545577049255</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8611359596252441</v>
       </c>
       <c r="V199" t="n">
-        <v>0.569115161895752</v>
+        <v>0.5303255319595337</v>
       </c>
       <c r="W199" t="n">
-        <v>0.08527614921331406</v>
+        <v>0.10943553596735</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.922266960144043</v>
       </c>
       <c r="V200" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.4811730980873108</v>
       </c>
       <c r="W200" t="n">
-        <v>0.2077879458665848</v>
+        <v>0.1945637911558151</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8660149574279785</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.9287142157554626</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1545045524835587</v>
+        <v>0.003931196872144938</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5172791481018066</v>
       </c>
       <c r="V202" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.4852901101112366</v>
       </c>
       <c r="W202" t="n">
-        <v>0.01598392054438591</v>
+        <v>0.001023298595100641</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5152678489685059</v>
       </c>
       <c r="V203" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.5750282406806946</v>
       </c>
       <c r="W203" t="n">
-        <v>0.00371174025349319</v>
+        <v>0.003571304492652416</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5202019214630127</v>
       </c>
       <c r="V204" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.5094091892242432</v>
       </c>
       <c r="W204" t="n">
-        <v>0.08778560161590576</v>
+        <v>0.0001164830682682805</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5655310153961182</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.9836081862449646</v>
       </c>
       <c r="W205" t="n">
-        <v>0.007654055487364531</v>
+        <v>0.1747885197401047</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5185132026672363</v>
       </c>
       <c r="V206" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.5788602828979492</v>
       </c>
       <c r="W206" t="n">
-        <v>0.08979545533657074</v>
+        <v>0.003641769988462329</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5197618007659912</v>
       </c>
       <c r="V207" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.4816527366638184</v>
       </c>
       <c r="W207" t="n">
-        <v>0.004285010974854231</v>
+        <v>0.001452300813980401</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5155971050262451</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.4968300461769104</v>
       </c>
       <c r="W208" t="n">
-        <v>0.00117053184658289</v>
+        <v>0.0003522025072015822</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5225050449371338</v>
       </c>
       <c r="V209" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.4778634309768677</v>
       </c>
       <c r="W209" t="n">
-        <v>0.01804484613239765</v>
+        <v>0.001992873614653945</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5176210403442383</v>
       </c>
       <c r="V210" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.8987305760383606</v>
       </c>
       <c r="W210" t="n">
-        <v>0.002229437697678804</v>
+        <v>0.1452444791793823</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.519507884979248</v>
       </c>
       <c r="V211" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.5041301846504211</v>
       </c>
       <c r="W211" t="n">
-        <v>0.00724977208301425</v>
+        <v>0.0002364736719755456</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5230588912963867</v>
       </c>
       <c r="V212" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.5522098541259766</v>
       </c>
       <c r="W212" t="n">
-        <v>0.007574764546006918</v>
+        <v>0.0008497786475345492</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5197830200195312</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.923737645149231</v>
       </c>
       <c r="W213" t="n">
-        <v>0.007017394062131643</v>
+        <v>0.163179337978363</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5210931301116943</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.4787929654121399</v>
       </c>
       <c r="W214" t="n">
-        <v>0.00434008426964283</v>
+        <v>0.001789303962141275</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5216929912567139</v>
       </c>
       <c r="V215" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.4678011536598206</v>
       </c>
       <c r="W215" t="n">
-        <v>0.009581195190548897</v>
+        <v>0.002904330147430301</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5793759822845459</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.4807995557785034</v>
       </c>
       <c r="W216" t="n">
-        <v>0.0006779676768928766</v>
+        <v>0.009717311710119247</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5223038196563721</v>
       </c>
       <c r="V217" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.9027050137519836</v>
       </c>
       <c r="W217" t="n">
-        <v>0.009475444443523884</v>
+        <v>0.1447050720453262</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5224268436431885</v>
       </c>
       <c r="V218" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.8817082047462463</v>
       </c>
       <c r="W218" t="n">
-        <v>0.02061594091355801</v>
+        <v>0.1290830969810486</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5215280055999756</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.5303628444671631</v>
       </c>
       <c r="W219" t="n">
-        <v>0.002655156888067722</v>
+        <v>7.805437780916691e-05</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.520237922668457</v>
       </c>
       <c r="V220" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.5124565362930298</v>
       </c>
       <c r="W220" t="n">
-        <v>0.001175024546682835</v>
+        <v>6.054997356841341e-05</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5750319957733154</v>
       </c>
       <c r="V221" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.4927724003791809</v>
       </c>
       <c r="W221" t="n">
-        <v>0.002121817087754607</v>
+        <v>0.006766641046851873</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3853199481964111</v>
       </c>
       <c r="V222" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.4848057627677917</v>
       </c>
       <c r="W222" t="n">
-        <v>0.03365017846226692</v>
+        <v>0.009897427633404732</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3860340118408203</v>
       </c>
       <c r="V223" t="n">
-        <v>0.561543881893158</v>
+        <v>0.4873397350311279</v>
       </c>
       <c r="W223" t="n">
-        <v>0.03080371394753456</v>
+        <v>0.01026284974068403</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3890368938446045</v>
       </c>
       <c r="V224" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.5050874948501587</v>
       </c>
       <c r="W224" t="n">
-        <v>0.0529136098921299</v>
+        <v>0.01346774213016033</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3898341655731201</v>
       </c>
       <c r="V225" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.9243384599685669</v>
       </c>
       <c r="W225" t="n">
-        <v>0.05353118106722832</v>
+        <v>0.2856948375701904</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3917610645294189</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.4672330021858215</v>
       </c>
       <c r="W226" t="n">
-        <v>0.003907080739736557</v>
+        <v>0.005696013569831848</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3967130184173584</v>
       </c>
       <c r="V227" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.5673898458480835</v>
       </c>
       <c r="W227" t="n">
-        <v>0.02405138500034809</v>
+        <v>0.02913057990372181</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3917720317840576</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.4692296385765076</v>
       </c>
       <c r="W228" t="n">
-        <v>0.001967805437743664</v>
+        <v>0.005999681074172258</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4049980640411377</v>
       </c>
       <c r="V229" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.8815674185752869</v>
       </c>
       <c r="W229" t="n">
-        <v>0.0005329982959665358</v>
+        <v>0.2271183431148529</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3933031558990479</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.4672178030014038</v>
       </c>
       <c r="W230" t="n">
-        <v>0.02509813196957111</v>
+        <v>0.005463375244289637</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3891949653625488</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.5796687006950378</v>
       </c>
       <c r="W231" t="n">
-        <v>0.002191773382946849</v>
+        <v>0.03628024458885193</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3924939632415771</v>
       </c>
       <c r="V232" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.4804650545120239</v>
       </c>
       <c r="W232" t="n">
-        <v>0.05358630418777466</v>
+        <v>0.00773891294375062</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3936381340026855</v>
       </c>
       <c r="V233" t="n">
-        <v>0.390147477388382</v>
+        <v>0.8957672715187073</v>
       </c>
       <c r="W233" t="n">
-        <v>1.218468332808698e-05</v>
+        <v>0.2521336674690247</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3953220844268799</v>
       </c>
       <c r="V234" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.5301750898361206</v>
       </c>
       <c r="W234" t="n">
-        <v>0.003898386145010591</v>
+        <v>0.0181853324174881</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3943848609924316</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.4925804138183594</v>
       </c>
       <c r="W235" t="n">
-        <v>0.01307106111198664</v>
+        <v>0.009642366319894791</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3963310718536377</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.9397452473640442</v>
       </c>
       <c r="W236" t="n">
-        <v>0.001543683931231499</v>
+        <v>0.2952989637851715</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3928289413452148</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.8922129273414612</v>
       </c>
       <c r="W237" t="n">
-        <v>0.001895960071124136</v>
+        <v>0.2493843585252762</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3898689746856689</v>
       </c>
       <c r="V238" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.4863552451133728</v>
       </c>
       <c r="W238" t="n">
-        <v>0.004591052886098623</v>
+        <v>0.009309600107371807</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3886690139770508</v>
       </c>
       <c r="V239" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.5452485680580139</v>
       </c>
       <c r="W239" t="n">
-        <v>2.048154101430555e-06</v>
+        <v>0.02451715618371964</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.4348142147064209</v>
       </c>
       <c r="V240" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.5500942468643188</v>
       </c>
       <c r="W240" t="n">
-        <v>0.03580761700868607</v>
+        <v>0.01328948605805635</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3948988914489746</v>
       </c>
       <c r="V241" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.9996848702430725</v>
       </c>
       <c r="W241" t="n">
-        <v>0.0304478332400322</v>
+        <v>0.3657660782337189</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9513580799102783</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.4794125556945801</v>
       </c>
       <c r="W242" t="n">
-        <v>0.2655702531337738</v>
+        <v>0.2227325737476349</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9071230888366699</v>
       </c>
       <c r="V243" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.9443343281745911</v>
       </c>
       <c r="W243" t="n">
-        <v>0.04755557700991631</v>
+        <v>0.001384676317684352</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.9055731296539307</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.5301214456558228</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1854663044214249</v>
+        <v>0.1409639716148376</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8758578300476074</v>
       </c>
       <c r="V245" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.4828119874000549</v>
       </c>
       <c r="W245" t="n">
-        <v>0.004088436253368855</v>
+        <v>0.1544850319623947</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8632829189300537</v>
       </c>
       <c r="V246" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.5301887989044189</v>
       </c>
       <c r="W246" t="n">
-        <v>0.1309891939163208</v>
+        <v>0.110951691865921</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8680729866027832</v>
       </c>
       <c r="V247" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.5302727818489075</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1677010357379913</v>
+        <v>0.1141089797019958</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.9254651069641113</v>
       </c>
       <c r="V248" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.8793803453445435</v>
       </c>
       <c r="W248" t="n">
-        <v>0.07150379568338394</v>
+        <v>0.002123805228620768</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8758151531219482</v>
       </c>
       <c r="V249" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.8875899910926819</v>
       </c>
       <c r="W249" t="n">
-        <v>0.06255210191011429</v>
+        <v>0.0001386468065902591</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.873121976852417</v>
       </c>
       <c r="V250" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.8934823274612427</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1912923604249954</v>
+        <v>0.0004145438724663109</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8866560459136963</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.4920735955238342</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1505500227212906</v>
+        <v>0.155695304274559</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.9379360675811768</v>
       </c>
       <c r="V252" t="n">
-        <v>0.474732518196106</v>
+        <v>0.5517393350601196</v>
       </c>
       <c r="W252" t="n">
-        <v>0.2145575284957886</v>
+        <v>0.1491479128599167</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8752748966217041</v>
       </c>
       <c r="V253" t="n">
-        <v>0.436027318239212</v>
+        <v>0.4791157245635986</v>
       </c>
       <c r="W253" t="n">
-        <v>0.192938432097435</v>
+        <v>0.1569420844316483</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8672950267791748</v>
       </c>
       <c r="V254" t="n">
-        <v>0.43533855676651</v>
+        <v>0.5301600694656372</v>
       </c>
       <c r="W254" t="n">
-        <v>0.186586394906044</v>
+        <v>0.1136599779129028</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8701579570770264</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.8698280453681946</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1549350023269653</v>
+        <v>1.088417320715962e-07</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9389669895172119</v>
       </c>
       <c r="V256" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.5411493182182312</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1009033173322678</v>
+        <v>0.1582589000463486</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8714439868927002</v>
       </c>
       <c r="V257" t="n">
-        <v>0.624763011932373</v>
+        <v>0.9430610537528992</v>
       </c>
       <c r="W257" t="n">
-        <v>0.06085150316357613</v>
+        <v>0.005129004362970591</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8583431243896484</v>
       </c>
       <c r="V258" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.4918092489242554</v>
       </c>
       <c r="W258" t="n">
-        <v>0.01436408888548613</v>
+        <v>0.1343470811843872</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8718819618225098</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.4814329147338867</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1567542552947998</v>
+        <v>0.1524504572153091</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.9238181114196777</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.500560462474823</v>
       </c>
       <c r="W260" t="n">
-        <v>0.2321168780326843</v>
+        <v>0.1791470348834991</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8713071346282959</v>
       </c>
       <c r="V261" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.4871955513954163</v>
       </c>
       <c r="W261" t="n">
-        <v>0.0731179267168045</v>
+        <v>0.1475417017936707</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.524357795715332</v>
       </c>
       <c r="V262" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.5957227349281311</v>
       </c>
       <c r="W262" t="n">
-        <v>0.01081541739404202</v>
+        <v>0.005092954728752375</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5357398986816406</v>
       </c>
       <c r="V263" t="n">
-        <v>0.436014860868454</v>
+        <v>0.4696658253669739</v>
       </c>
       <c r="W263" t="n">
-        <v>0.009945083409547806</v>
+        <v>0.004365783184766769</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5208039283752441</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.4951580762863159</v>
       </c>
       <c r="W264" t="n">
-        <v>0.0009769871830940247</v>
+        <v>0.0006577097228728235</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5754790306091309</v>
       </c>
       <c r="V265" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.4968979358673096</v>
       </c>
       <c r="W265" t="n">
-        <v>0.01194644160568714</v>
+        <v>0.006174988579005003</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5243031978607178</v>
       </c>
       <c r="V266" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.8947249054908752</v>
       </c>
       <c r="W266" t="n">
-        <v>0.004455947317183018</v>
+        <v>0.1372122466564178</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5236918926239014</v>
       </c>
       <c r="V267" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.5108773708343506</v>
       </c>
       <c r="W267" t="n">
-        <v>0.002045626286417246</v>
+        <v>0.0001642119750613347</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5233151912689209</v>
       </c>
       <c r="V268" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.4835565686225891</v>
       </c>
       <c r="W268" t="n">
-        <v>0.009540887549519539</v>
+        <v>0.001580748124979436</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5235910415649414</v>
       </c>
       <c r="V269" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.5301604270935059</v>
       </c>
       <c r="W269" t="n">
-        <v>0.002823927672579885</v>
+        <v>4.315682599553838e-05</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5371921062469482</v>
       </c>
       <c r="V270" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.4814217090606689</v>
       </c>
       <c r="W270" t="n">
-        <v>0.006456991191953421</v>
+        <v>0.003110337303951383</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5254440307617188</v>
       </c>
       <c r="V271" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.8981016874313354</v>
       </c>
       <c r="W271" t="n">
-        <v>0.0007109571597538888</v>
+        <v>0.1388737261295319</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5326879024505615</v>
       </c>
       <c r="V272" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.5804595947265625</v>
       </c>
       <c r="W272" t="n">
-        <v>0.02288961969316006</v>
+        <v>0.002282134490087628</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5249629020690918</v>
       </c>
       <c r="V273" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.5325042605400085</v>
       </c>
       <c r="W273" t="n">
-        <v>0.04478074237704277</v>
+        <v>5.68720861338079e-05</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5662798881530762</v>
       </c>
       <c r="V274" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.5094510316848755</v>
       </c>
       <c r="W274" t="n">
-        <v>0.01168343797326088</v>
+        <v>0.003229518886655569</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.526979923248291</v>
       </c>
       <c r="V275" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.5687360167503357</v>
       </c>
       <c r="W275" t="n">
-        <v>0.0009883211459964514</v>
+        <v>0.001743571367114782</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5211200714111328</v>
       </c>
       <c r="V276" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.5336261987686157</v>
       </c>
       <c r="W276" t="n">
-        <v>0.01090566627681255</v>
+        <v>0.000156403228174895</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5230538845062256</v>
       </c>
       <c r="V277" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.5568961501121521</v>
       </c>
       <c r="W277" t="n">
-        <v>0.01417188718914986</v>
+        <v>0.001145298941992223</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5211920738220215</v>
       </c>
       <c r="V278" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.4829280376434326</v>
       </c>
       <c r="W278" t="n">
-        <v>0.004569672979414463</v>
+        <v>0.00146413641050458</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.518333911895752</v>
       </c>
       <c r="V279" t="n">
-        <v>0.475897878408432</v>
+        <v>0.8772919774055481</v>
       </c>
       <c r="W279" t="n">
-        <v>0.001800816971808672</v>
+        <v>0.1288508921861649</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5183570384979248</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.9605991840362549</v>
       </c>
       <c r="W280" t="n">
-        <v>0.001211749040521681</v>
+        <v>0.1955781131982803</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5770409107208252</v>
       </c>
       <c r="V281" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.4821617007255554</v>
       </c>
       <c r="W281" t="n">
-        <v>0.03127751126885414</v>
+        <v>0.009002064354717731</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4212188720703125</v>
       </c>
       <c r="V282" t="n">
-        <v>0.551541268825531</v>
+        <v>0.4672723412513733</v>
       </c>
       <c r="W282" t="n">
-        <v>0.01698392629623413</v>
+        <v>0.002120922086760402</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3988840579986572</v>
       </c>
       <c r="V283" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.4796314835548401</v>
       </c>
       <c r="W283" t="n">
-        <v>0.0004205043660476804</v>
+        <v>0.006520146504044533</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3965771198272705</v>
       </c>
       <c r="V284" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.5954651236534119</v>
       </c>
       <c r="W284" t="n">
-        <v>0.1224320977926254</v>
+        <v>0.03955643624067307</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3919050693511963</v>
       </c>
       <c r="V285" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.8714906573295593</v>
       </c>
       <c r="W285" t="n">
-        <v>0.06343989819288254</v>
+        <v>0.2300023287534714</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3981080055236816</v>
       </c>
       <c r="V286" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.8764867186546326</v>
       </c>
       <c r="W286" t="n">
-        <v>0.003579833311960101</v>
+        <v>0.2288461923599243</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4517161846160889</v>
       </c>
       <c r="V287" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.4817429780960083</v>
       </c>
       <c r="W287" t="n">
-        <v>4.417099262354895e-06</v>
+        <v>0.0009016083204187453</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3978021144866943</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.5794264078140259</v>
       </c>
       <c r="W288" t="n">
-        <v>0.001465829205699265</v>
+        <v>0.03298738226294518</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4025349617004395</v>
       </c>
       <c r="V289" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.9665367603302002</v>
       </c>
       <c r="W289" t="n">
-        <v>0.04986926913261414</v>
+        <v>0.3180980384349823</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3955140113830566</v>
       </c>
       <c r="V290" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.5561297535896301</v>
       </c>
       <c r="W290" t="n">
-        <v>0.07006081938743591</v>
+        <v>0.02579741738736629</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3961632251739502</v>
       </c>
       <c r="V291" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.872563898563385</v>
       </c>
       <c r="W291" t="n">
-        <v>0.05206248909235001</v>
+        <v>0.2269576042890549</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.403317928314209</v>
       </c>
       <c r="V292" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.8827340006828308</v>
       </c>
       <c r="W292" t="n">
-        <v>0.0100745540112257</v>
+        <v>0.2298397719860077</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3942599296569824</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.5121966600418091</v>
       </c>
       <c r="W293" t="n">
-        <v>0.01194949075579643</v>
+        <v>0.01390907261520624</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3938801288604736</v>
       </c>
       <c r="V294" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.5302420854568481</v>
       </c>
       <c r="W294" t="n">
-        <v>0.1748014241456985</v>
+        <v>0.01859458349645138</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3980469703674316</v>
       </c>
       <c r="V295" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.8991663455963135</v>
       </c>
       <c r="W295" t="n">
-        <v>0.0241849385201931</v>
+        <v>0.2511206269264221</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3912150859832764</v>
       </c>
       <c r="V296" t="n">
-        <v>0.56879723072052</v>
+        <v>0.4796883463859558</v>
       </c>
       <c r="W296" t="n">
-        <v>0.03153541684150696</v>
+        <v>0.007827517576515675</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3973691463470459</v>
       </c>
       <c r="V297" t="n">
-        <v>0.551414966583252</v>
+        <v>0.4792587757110596</v>
       </c>
       <c r="W297" t="n">
-        <v>0.02373011410236359</v>
+        <v>0.006705911364406347</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4065189361572266</v>
       </c>
       <c r="V298" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.505241334438324</v>
       </c>
       <c r="W298" t="n">
-        <v>0.02866388857364655</v>
+        <v>0.009746111929416656</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3926479816436768</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.5324967503547668</v>
       </c>
       <c r="W299" t="n">
-        <v>0.001881516072899103</v>
+        <v>0.01955767720937729</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3993229866027832</v>
       </c>
       <c r="V300" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.4734601974487305</v>
       </c>
       <c r="W300" t="n">
-        <v>0.06632598489522934</v>
+        <v>0.00549632590264082</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3974528312683105</v>
       </c>
       <c r="V301" t="n">
-        <v>0.57613205909729</v>
+        <v>0.4794093370437622</v>
       </c>
       <c r="W301" t="n">
-        <v>0.03192626684904099</v>
+        <v>0.006716868840157986</v>
       </c>
     </row>
     <row r="302" spans="1:23">
